--- a/Day 1- Mastering Formulas + Pivot Tables in Excel/1-Lookup & Decision Formulas/1-1 Lookup Functions.xlsx
+++ b/Day 1- Mastering Formulas + Pivot Tables in Excel/1-Lookup & Decision Formulas/1-1 Lookup Functions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Desktop\Courses\Elementsix\Day 1- Mastering Formulas + Pivot Tables in Excel\1-Lookup &amp; Decision Formulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Documents\GitHub\element-six\Day 1- Mastering Formulas + Pivot Tables in Excel\1-Lookup &amp; Decision Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED9D2FD-DD4C-4BA3-B1D6-B79CBDA3519C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F57269-F6C9-4922-8FF1-88A6C3E77B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" xr2:uid="{F9A3AA06-54EC-497B-B5B3-392C3D7B0556}"/>
   </bookViews>
@@ -592,7 +592,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -695,6 +695,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2879,7 +2885,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.7" outlineLevelRow="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3532,7 +3538,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD28"/>
+      <selection activeCell="K12" sqref="K12:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" outlineLevelRow="1" x14ac:dyDescent="0.5"/>
@@ -3688,10 +3694,7 @@
       <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="38">
-        <f>SUM(F4:H7)</f>
-        <v>5401</v>
-      </c>
+      <c r="K12" s="38"/>
       <c r="L12">
         <v>5401</v>
       </c>
@@ -3700,10 +3703,7 @@
       <c r="B13" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="38">
-        <f>SUM(C4:I4,C7:I7)</f>
-        <v>7452</v>
-      </c>
+      <c r="K13" s="38"/>
       <c r="L13">
         <v>7452</v>
       </c>
@@ -3712,10 +3712,7 @@
       <c r="B14" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="38">
-        <f>SUM(E4:G7 C5:I5)</f>
-        <v>1546</v>
-      </c>
+      <c r="K14" s="38"/>
       <c r="L14">
         <v>1546</v>
       </c>
@@ -3724,10 +3721,7 @@
       <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="38">
-        <f>SUM(E4:E7 C5:I5,H4:H7 C4:I4)</f>
-        <v>1035</v>
-      </c>
+      <c r="K15" s="38"/>
       <c r="L15">
         <v>1035</v>
       </c>
@@ -3808,8 +3802,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD42"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.7" outlineLevelRow="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4285,7 +4279,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" outlineLevelRow="1" x14ac:dyDescent="0.5"/>
@@ -4385,9 +4379,10 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="43" t="s">
         <v>20</v>
       </c>
+      <c r="K5" s="41"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -4410,9 +4405,10 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="44" t="s">
         <v>19</v>
       </c>
+      <c r="K6" s="41"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
